--- a/backend/api/kb/pH-to-plant.xlsx
+++ b/backend/api/kb/pH-to-plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>plant_type</t>
   </si>
@@ -362,20 +362,40 @@
     <t>https://www.cropnutrition.com/efu-soil-ph</t>
   </si>
   <si>
-    <t>https://www.almanac.com/plant-ph#</t>
-  </si>
-  <si>
-    <t>https://pss.uvm.edu/ppp/pubs/oh34.htm</t>
+    <t xml:space="preserve">https://www.almanac.com/plant-ph# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cactusnursery.co.uk/ph.htm </t>
+  </si>
+  <si>
+    <t>For row 2 to 18</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>For Cactus (Row 113)</t>
+  </si>
+  <si>
+    <t>For row 19 to 112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,13 +418,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1948,6 +1971,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1955,30 +1989,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B7"/>
+  <dimension ref="B3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2" location=" "/>
+    <hyperlink ref="B12" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>